--- a/src/test/resources/菜谱.xlsx
+++ b/src/test/resources/菜谱.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyszh\Desktop\天刀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\self\myWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1465345-28E1-40AE-8196-4DEF398275E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4425" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="4430" windowWidth="28800" windowHeight="15440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="277">
   <si>
     <r>
       <rPr>
@@ -785,9 +784,6 @@
     <t>花菇无黄蛋</t>
   </si>
   <si>
-    <t>鸡蛋+竹笋+辣椒+香</t>
-  </si>
-  <si>
     <t>荆湖系</t>
   </si>
   <si>
@@ -1095,16 +1091,160 @@
   </si>
   <si>
     <t>煿今煮玉</t>
+  </si>
+  <si>
+    <t>百鸟朝凤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸡肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>廋肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香蕈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>料酒</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>鸡蛋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>竹笋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>辣椒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>香蕈</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1333,7 +1473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1409,6 +1549,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1722,25 +1868,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="37.26953125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.453125" style="13" customWidth="1"/>
     <col min="4" max="4" width="39" style="13" customWidth="1"/>
     <col min="5" max="5" width="29" style="13"/>
-    <col min="6" max="6" width="6.42578125"/>
-    <col min="7" max="7" width="23.7109375"/>
+    <col min="6" max="6" width="6.453125"/>
+    <col min="7" max="7" width="23.7265625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1766,7 +1912,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1785,7 +1931,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
@@ -1807,7 +1953,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1829,7 +1975,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1851,7 +1997,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -1873,7 +2019,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -1897,7 +2043,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
@@ -1916,7 +2062,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +2083,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
@@ -1959,7 +2105,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
@@ -1981,7 +2127,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
@@ -2000,7 +2146,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
@@ -2024,7 +2170,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -2046,7 +2192,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2068,7 +2214,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2233,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
@@ -2111,7 +2257,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2133,7 +2279,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -2155,7 +2301,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
@@ -2174,7 +2320,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -2193,7 +2339,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>84</v>
       </c>
@@ -2214,7 +2360,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -2235,7 +2381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -2256,7 +2402,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
         <v>90</v>
       </c>
@@ -2275,7 +2421,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>92</v>
       </c>
@@ -2294,7 +2440,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
@@ -2313,7 +2459,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>96</v>
       </c>
@@ -2334,7 +2480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>98</v>
       </c>
@@ -2353,7 +2499,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -2372,7 +2518,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -2391,7 +2537,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>104</v>
       </c>
@@ -2410,7 +2556,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -2429,7 +2575,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>109</v>
       </c>
@@ -2450,7 +2596,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>112</v>
       </c>
@@ -2469,7 +2615,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>113</v>
       </c>
@@ -2488,7 +2634,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
@@ -2507,7 +2653,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>121</v>
       </c>
@@ -2530,7 +2676,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>126</v>
       </c>
@@ -2553,7 +2699,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>128</v>
       </c>
@@ -2576,7 +2722,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -2599,7 +2745,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
@@ -2622,7 +2768,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>135</v>
       </c>
@@ -2645,7 +2791,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>137</v>
       </c>
@@ -2668,7 +2814,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>139</v>
       </c>
@@ -2691,9 +2837,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>133</v>
@@ -2714,7 +2860,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>142</v>
       </c>
@@ -2737,7 +2883,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>145</v>
       </c>
@@ -2760,15 +2906,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>79</v>
@@ -2783,7 +2929,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>147</v>
       </c>
@@ -2806,7 +2952,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>149</v>
       </c>
@@ -2829,7 +2975,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>151</v>
       </c>
@@ -2852,7 +2998,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>157</v>
       </c>
@@ -2875,7 +3021,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>159</v>
       </c>
@@ -2898,7 +3044,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>161</v>
       </c>
@@ -2921,7 +3067,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>165</v>
       </c>
@@ -2944,7 +3090,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
         <v>168</v>
       </c>
@@ -2967,199 +3113,189 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+      <c r="A58" s="27" t="s">
+        <v>274</v>
+      </c>
+      <c r="B58" s="13">
+        <v>15</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+    </row>
+    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B59" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C59" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="E59" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="13" t="s">
+      <c r="F59" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>175</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E60" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F60" s="13" t="s">
+      <c r="G61" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G60" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="B62" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B61" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C61" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="E62" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="E61" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G61" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="B62" s="13">
-        <v>17</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="B63" s="13">
         <v>17</v>
       </c>
       <c r="C63" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B64" s="13">
+        <v>17</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E63" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G63" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="B65" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="D65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="D64" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F64" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
+      <c r="B66" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>193</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F65" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B66" s="13">
-        <v>17</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>196</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>108</v>
@@ -3174,199 +3310,199 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="13">
+        <v>17</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>198</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E67" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="B68" s="13">
-        <v>18</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>202</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E68" s="13" t="s">
-        <v>124</v>
+        <v>199</v>
       </c>
       <c r="F68" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="13">
+        <v>18</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F69" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="G68" s="13" t="s">
+      <c r="G69" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
+      <c r="B70" s="13">
+        <v>19</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="B69" s="13">
-        <v>19</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E69" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F69" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E70" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="G71" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="G70" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="B72" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>213</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G71" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B72" s="13">
-        <v>20</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>217</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E72" s="13" t="s">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="F72" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B73" s="13">
         <v>20</v>
       </c>
       <c r="C73" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B74" s="13">
+        <v>20</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="B74" s="13">
-        <v>21</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E74" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>222</v>
       </c>
       <c r="B75" s="13">
         <v>21</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>86</v>
@@ -3374,390 +3510,415 @@
       <c r="E75" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F75" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B76" s="13">
         <v>21</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E76" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B77" s="13">
         <v>21</v>
       </c>
       <c r="C77" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B78" s="13">
+        <v>21</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="B78" s="13">
-        <v>22</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>230</v>
       </c>
       <c r="B79" s="13">
         <v>22</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E79" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B80" s="13">
         <v>22</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E80" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B81" s="13">
         <v>22</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E81" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B82" s="13">
         <v>22</v>
       </c>
       <c r="C82" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="13">
+        <v>22</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E82" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="B83" s="13">
-        <v>23</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
-        <v>240</v>
       </c>
       <c r="B84" s="13">
         <v>23</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="E84" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B85" s="13">
         <v>23</v>
       </c>
       <c r="C85" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="B86" s="13">
+        <v>23</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
         <v>243</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="B86" s="13">
-        <v>24</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E86" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="B87" s="13">
         <v>24</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E87" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B88" s="13">
         <v>24</v>
       </c>
       <c r="C88" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B89" s="13">
+        <v>24</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
         <v>249</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="B89" s="13">
-        <v>25</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
-        <v>253</v>
       </c>
       <c r="B90" s="13">
         <v>25</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E90" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B91" s="13">
+        <v>25</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="B91" s="13">
-        <v>26</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
-        <v>258</v>
       </c>
       <c r="B92" s="13">
         <v>26</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="E92" s="13" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B93" s="13">
         <v>26</v>
       </c>
       <c r="C93" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B94" s="13">
+        <v>26</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="B95" s="13">
+        <v>27</v>
+      </c>
+      <c r="C95" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="B94" s="13">
-        <v>27</v>
-      </c>
-      <c r="C94" s="13" t="s">
+      <c r="D95" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
         <v>263</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="B95" s="13">
-        <v>28</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
-        <v>266</v>
       </c>
       <c r="B96" s="13">
         <v>28</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E96" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B97" s="13">
+        <v>28</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B98" s="13">
+        <v>29</v>
+      </c>
+      <c r="C98" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="B97" s="13">
-        <v>29</v>
-      </c>
-      <c r="C97" s="13" t="s">
+      <c r="D98" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="B99" s="13">
+        <v>30</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="B98" s="13">
-        <v>30</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="D98" s="13" t="s">
+      <c r="D99" s="13" t="s">
         <v>86</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/resources/菜谱.xlsx
+++ b/src/test/resources/菜谱.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\self\myWeb\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lyszh\Desktop\天刀\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8662F0B3-4C4D-441A-85B3-8710D66DFA54}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="4430" windowWidth="28800" windowHeight="15440"/>
+    <workbookView xWindow="9600" yWindow="4245" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -745,9 +746,6 @@
     <t>剁椒鱼头</t>
   </si>
   <si>
-    <t>花+辣椒+豆排酱+辅料</t>
-  </si>
-  <si>
     <t>汴京烤鸭</t>
   </si>
   <si>
@@ -1218,12 +1216,15 @@
       <t>香蕈</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花鲢+辣椒+豆排酱+辅料</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1868,25 +1869,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.26953125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="33.453125" style="13" customWidth="1"/>
+    <col min="1" max="1" width="37.28515625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" style="13" customWidth="1"/>
     <col min="4" max="4" width="39" style="13" customWidth="1"/>
     <col min="5" max="5" width="29" style="13"/>
-    <col min="6" max="6" width="6.453125"/>
-    <col min="7" max="7" width="23.7265625"/>
+    <col min="6" max="6" width="6.42578125"/>
+    <col min="7" max="7" width="23.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>39</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -1931,7 +1932,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>42</v>
       </c>
@@ -1953,7 +1954,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +1976,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
@@ -1997,7 +1998,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="15" t="s">
         <v>55</v>
       </c>
@@ -2062,7 +2063,7 @@
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
@@ -2127,7 +2128,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>49</v>
       </c>
@@ -2146,7 +2147,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>64</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>66</v>
       </c>
@@ -2192,7 +2193,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>69</v>
       </c>
@@ -2214,7 +2215,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>5</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>6</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>7</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
@@ -2320,7 +2321,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>82</v>
       </c>
@@ -2339,7 +2340,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>84</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
@@ -2381,7 +2382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>8</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
         <v>90</v>
       </c>
@@ -2421,7 +2422,7 @@
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>92</v>
       </c>
@@ -2440,7 +2441,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
         <v>9</v>
       </c>
@@ -2459,7 +2460,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
         <v>96</v>
       </c>
@@ -2480,7 +2481,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>98</v>
       </c>
@@ -2499,7 +2500,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>100</v>
       </c>
@@ -2518,7 +2519,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>102</v>
       </c>
@@ -2537,7 +2538,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>104</v>
       </c>
@@ -2556,7 +2557,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>106</v>
       </c>
@@ -2575,7 +2576,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>109</v>
       </c>
@@ -2596,7 +2597,7 @@
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>112</v>
       </c>
@@ -2615,7 +2616,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>113</v>
       </c>
@@ -2634,7 +2635,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>115</v>
       </c>
@@ -2653,7 +2654,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>121</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>126</v>
       </c>
@@ -2699,7 +2700,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>128</v>
       </c>
@@ -2722,7 +2723,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>130</v>
       </c>
@@ -2745,7 +2746,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>132</v>
       </c>
@@ -2768,7 +2769,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>135</v>
       </c>
@@ -2791,7 +2792,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>137</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>139</v>
       </c>
@@ -2837,9 +2838,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>133</v>
@@ -2860,7 +2861,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>142</v>
       </c>
@@ -2883,7 +2884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>145</v>
       </c>
@@ -2906,15 +2907,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>79</v>
@@ -2929,7 +2930,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>147</v>
       </c>
@@ -2952,7 +2953,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>149</v>
       </c>
@@ -2975,7 +2976,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>151</v>
       </c>
@@ -2998,7 +2999,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>157</v>
       </c>
@@ -3006,7 +3007,7 @@
         <v>152</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>158</v>
+        <v>276</v>
       </c>
       <c r="D53" s="13" t="s">
         <v>74</v>
@@ -3021,15 +3022,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>152</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D54" s="13" t="s">
         <v>95</v>
@@ -3044,38 +3045,38 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>152</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D55" s="13" t="s">
         <v>95</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>155</v>
       </c>
       <c r="G55" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="13" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>166</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>167</v>
       </c>
       <c r="D56" s="13" t="s">
         <v>68</v>
@@ -3090,15 +3091,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="D57" s="13" t="s">
         <v>68</v>
@@ -3113,120 +3114,120 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B58" s="13">
         <v>15</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
     </row>
-    <row r="59" spans="1:7" ht="13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D59" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>276</v>
-      </c>
-      <c r="D59" s="13" t="s">
+      <c r="E59" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="E59" s="13" t="s">
+      <c r="F59" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="F59" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G59" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
+      <c r="B60" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>174</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>175</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E60" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G60" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="F60" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="13" t="s">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="13" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="B61" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="13" t="s">
         <v>178</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>179</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E61" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>180</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>181</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C62" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B62" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="E62" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="13" t="s">
         <v>184</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G62" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="13" t="s">
-        <v>185</v>
       </c>
       <c r="B63" s="13">
         <v>17</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>61</v>
@@ -3241,15 +3242,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B64" s="13">
         <v>17</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D64" s="13" t="s">
         <v>60</v>
@@ -3264,15 +3265,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B65" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>190</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>191</v>
       </c>
       <c r="D65" s="13" t="s">
         <v>57</v>
@@ -3287,15 +3288,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="13" t="s">
         <v>192</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>193</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>108</v>
@@ -3310,15 +3311,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B67" s="13">
         <v>17</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>108</v>
@@ -3333,38 +3334,38 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B68" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="C68" s="13" t="s">
         <v>197</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>198</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>68</v>
       </c>
       <c r="E68" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="13" t="s">
         <v>199</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G68" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="13" t="s">
-        <v>200</v>
       </c>
       <c r="B69" s="13">
         <v>18</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>68</v>
@@ -3376,64 +3377,64 @@
         <v>155</v>
       </c>
       <c r="G69" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="13" t="s">
         <v>202</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="13" t="s">
-        <v>203</v>
       </c>
       <c r="B70" s="13">
         <v>19</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E70" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="F70" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G70" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="B71" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>207</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>208</v>
       </c>
       <c r="D71" s="13" t="s">
         <v>57</v>
       </c>
       <c r="E71" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F71" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="13" t="s">
+      <c r="G71" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="13" t="s">
+      <c r="B72" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>213</v>
       </c>
       <c r="D72" s="13" t="s">
         <v>78</v>
@@ -3445,24 +3446,24 @@
         <v>125</v>
       </c>
       <c r="G72" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="13" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="B73" s="13">
         <v>20</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="13" t="s">
         <v>78</v>
       </c>
       <c r="E73" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F73" s="13" t="s">
         <v>125</v>
@@ -3471,15 +3472,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B74" s="13">
         <v>20</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D74" s="13" t="s">
         <v>95</v>
@@ -3494,15 +3495,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" s="13">
         <v>21</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="13" t="s">
         <v>86</v>
@@ -3517,15 +3518,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B76" s="13">
         <v>21</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="13" t="s">
         <v>86</v>
@@ -3534,15 +3535,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B77" s="13">
         <v>21</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D77" s="13" t="s">
         <v>95</v>
@@ -3551,15 +3552,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B78" s="13">
         <v>21</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="13" t="s">
         <v>74</v>
@@ -3568,15 +3569,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B79" s="13">
         <v>22</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D79" s="13" t="s">
         <v>78</v>
@@ -3585,15 +3586,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B80" s="13">
         <v>22</v>
       </c>
       <c r="C80" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D80" s="13" t="s">
         <v>61</v>
@@ -3602,15 +3603,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B81" s="13">
         <v>22</v>
       </c>
       <c r="C81" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>74</v>
@@ -3619,15 +3620,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B82" s="13">
         <v>22</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>72</v>
@@ -3636,15 +3637,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B83" s="13">
         <v>22</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>74</v>
@@ -3653,15 +3654,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B84" s="13">
         <v>23</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>61</v>
@@ -3670,15 +3671,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B85" s="13">
         <v>23</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>68</v>
@@ -3687,15 +3688,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B86" s="13">
         <v>23</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>74</v>
@@ -3704,15 +3705,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B87" s="13">
         <v>24</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D87" s="13" t="s">
         <v>68</v>
@@ -3721,15 +3722,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B88" s="13">
         <v>24</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D88" s="13" t="s">
         <v>57</v>
@@ -3738,15 +3739,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B89" s="13">
         <v>24</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D89" s="13" t="s">
         <v>108</v>
@@ -3755,49 +3756,49 @@
         <v>124</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B90" s="13">
         <v>25</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D90" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E90" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="13" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>252</v>
       </c>
       <c r="B91" s="13">
         <v>25</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>79</v>
       </c>
       <c r="E91" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="13" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="B92" s="13">
         <v>26</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>78</v>
@@ -3806,15 +3807,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B93" s="13">
         <v>26</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>95</v>
@@ -3823,15 +3824,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B94" s="13">
         <v>26</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>78</v>
@@ -3840,15 +3841,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B95" s="13">
         <v>27</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D95" s="13" t="s">
         <v>60</v>
@@ -3857,15 +3858,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B96" s="13">
         <v>28</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D96" s="13" t="s">
         <v>86</v>
@@ -3874,43 +3875,43 @@
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B97" s="13">
         <v>28</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D97" s="13" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B98" s="13">
         <v>29</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D98" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B99" s="13">
         <v>30</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>86</v>
